--- a/report_ca_nhan/NV-15 Trương Lâm Khanh 6-2024.xlsx
+++ b/report_ca_nhan/NV-15 Trương Lâm Khanh 6-2024.xlsx
@@ -8,12 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Đơn sale phụ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Đơn 1 bác sĩ" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Đơn 2 bác sĩ" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Đơn phụ phẫu 1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Đơn phụ phẫu 2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Đơn thu nợ" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Đơn phụ phẫu 1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -419,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +523,16 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -605,6 +610,60 @@
       </c>
       <c r="T2" t="n">
         <v/>
+      </c>
+      <c r="U2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -618,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,367 +786,14 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
         </is>
       </c>
     </row>
@@ -1170,6 +876,12 @@
       <c r="T2" t="n">
         <v/>
       </c>
+      <c r="U2" t="n">
+        <v/>
+      </c>
+      <c r="V2" t="n">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1250,182 +962,59 @@
       <c r="T3" t="n">
         <v/>
       </c>
+      <c r="U3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã đơn thu nợ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Đơn nợ</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Lượng thu</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Ngày thu</t>
-        </is>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
